--- a/Output/March/productivity_agent/productivity_agent_2022-03-18.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-18.xlsx
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>519.7058823529412</v>
+        <v>530.2941176470588</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.6114186851211073</v>
+        <v>0.6238754325259515</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.4053932293788867</v>
+        <v>0.4078413762677</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -29389,7 +29389,7 @@
         <v>826</v>
       </c>
       <c r="N88">
-        <v>1448</v>
+        <v>1458</v>
       </c>
       <c r="O88">
         <v>1115</v>
@@ -29503,7 +29503,7 @@
         <v>538.6956521739131</v>
       </c>
       <c r="AZ88">
-        <v>851.7647058823529</v>
+        <v>857.6470588235294</v>
       </c>
       <c r="BA88">
         <v>787.0588235294118</v>
@@ -29617,7 +29617,7 @@
         <v>0.1161482648067945</v>
       </c>
       <c r="CL88">
-        <v>1.002076124567474</v>
+        <v>1.008996539792387</v>
       </c>
       <c r="CM88">
         <v>0.9838235294117648</v>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
       <c r="DA88">
-        <v>0.7018500043194176</v>
+        <v>0.7035801081256459</v>
       </c>
     </row>
     <row r="89" spans="1:105">
@@ -35412,7 +35412,7 @@
         <v>480</v>
       </c>
       <c r="N107">
-        <v>360</v>
+        <v>477</v>
       </c>
       <c r="O107">
         <v>1583</v>
@@ -35526,7 +35526,7 @@
         <v>0</v>
       </c>
       <c r="AZ107">
-        <v>299.9999999999999</v>
+        <v>397.4999999999999</v>
       </c>
       <c r="BA107">
         <v>753.8095238095237</v>
@@ -35640,7 +35640,7 @@
         <v>0</v>
       </c>
       <c r="CL107">
-        <v>0.3529411764705881</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="CM107">
         <v>0.9422619047619046</v>
@@ -35685,7 +35685,7 @@
         <v>0</v>
       </c>
       <c r="DA107">
-        <v>0.7279634581105168</v>
+        <v>0.7696746880570409</v>
       </c>
     </row>
     <row r="108" spans="1:105">
@@ -40167,7 +40167,7 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>4991</v>
+        <v>5114</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -40281,7 +40281,7 @@
         <v>0</v>
       </c>
       <c r="AZ122">
-        <v>737.5862068965517</v>
+        <v>755.7635467980296</v>
       </c>
       <c r="BA122">
         <v>0</v>
@@ -40395,7 +40395,7 @@
         <v>0</v>
       </c>
       <c r="CL122">
-        <v>0.8677484787018256</v>
+        <v>0.8891335844682701</v>
       </c>
       <c r="CM122">
         <v>0</v>
@@ -40440,7 +40440,7 @@
         <v>0</v>
       </c>
       <c r="DA122">
-        <v>0.8991831492422296</v>
+        <v>0.9181402517338813</v>
       </c>
     </row>
     <row r="123" spans="1:105">
@@ -45556,7 +45556,7 @@
         <v>993</v>
       </c>
       <c r="N139">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O139">
         <v>993</v>
@@ -45670,7 +45670,7 @@
         <v>0</v>
       </c>
       <c r="AZ139">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="BA139">
         <v>709.2857142857143</v>
@@ -45784,7 +45784,7 @@
         <v>0</v>
       </c>
       <c r="CL139">
-        <v>0</v>
+        <v>1.694117647058824</v>
       </c>
       <c r="CM139">
         <v>0.8866071428571429</v>
@@ -45829,7 +45829,7 @@
         <v>0</v>
       </c>
       <c r="DA139">
-        <v>0.5592877209028844</v>
+        <v>0.6262488927233912</v>
       </c>
     </row>
     <row r="140" spans="1:105">
